--- a/tests/data/source_1.xlsx
+++ b/tests/data/source_1.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ghost\Desktop\cronus-eater\tests\data\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E2C5FA2A-01A2-48BA-828C-CFED834926B8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67A8198-6CAB-4AF8-85FC-BA1688C03ED6}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="3675" yWindow="1545" windowWidth="21600" windowHeight="11295" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15720" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -36,7 +36,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="48" uniqueCount="7">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="36" uniqueCount="7">
   <si>
     <t>Blabla1</t>
   </si>
@@ -381,10 +381,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:Z36"/>
+  <dimension ref="A1:Z32"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView tabSelected="1" topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="L36" sqref="B36:L36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -806,7 +806,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="17" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="17" spans="3:26" x14ac:dyDescent="0.25">
       <c r="C17" t="s">
         <v>0</v>
       </c>
@@ -829,7 +829,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="18" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="18" spans="3:26" x14ac:dyDescent="0.25">
       <c r="D18" t="s">
         <v>1</v>
       </c>
@@ -871,7 +871,7 @@
       </c>
       <c r="Z18" s="1"/>
     </row>
-    <row r="19" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="19" spans="3:26" x14ac:dyDescent="0.25">
       <c r="E19" t="s">
         <v>2</v>
       </c>
@@ -894,12 +894,12 @@
         <v>25</v>
       </c>
     </row>
-    <row r="20" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="20" spans="3:26" x14ac:dyDescent="0.25">
       <c r="M20" s="1"/>
       <c r="N20" s="1"/>
       <c r="X20" s="1"/>
     </row>
-    <row r="21" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="21" spans="3:26" x14ac:dyDescent="0.25">
       <c r="O21" t="s">
         <v>0</v>
       </c>
@@ -922,25 +922,13 @@
         <v>15</v>
       </c>
     </row>
-    <row r="22" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="F22" s="1">
-        <v>44848</v>
-      </c>
-      <c r="G22" s="1">
-        <v>44849</v>
-      </c>
-      <c r="H22" s="1">
-        <v>44850</v>
-      </c>
-      <c r="I22" s="1">
-        <v>44851</v>
-      </c>
-      <c r="J22" s="1">
-        <v>44852</v>
-      </c>
-      <c r="L22" s="1">
-        <v>44852</v>
-      </c>
+    <row r="22" spans="3:26" x14ac:dyDescent="0.25">
+      <c r="F22" s="1"/>
+      <c r="G22" s="1"/>
+      <c r="H22" s="1"/>
+      <c r="I22" s="1"/>
+      <c r="J22" s="1"/>
+      <c r="L22" s="1"/>
       <c r="P22" t="s">
         <v>1</v>
       </c>
@@ -963,7 +951,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="23" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="23" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Q23" t="s">
         <v>2</v>
       </c>
@@ -986,7 +974,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="24" spans="2:26" x14ac:dyDescent="0.25">
+    <row r="24" spans="3:26" x14ac:dyDescent="0.25">
       <c r="K24" s="1"/>
       <c r="O24" t="s">
         <v>0</v>
@@ -1010,25 +998,7 @@
         <v>58</v>
       </c>
     </row>
-    <row r="25" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B25" t="s">
-        <v>0</v>
-      </c>
-      <c r="F25">
-        <v>61</v>
-      </c>
-      <c r="G25">
-        <v>19</v>
-      </c>
-      <c r="H25">
-        <v>6</v>
-      </c>
-      <c r="I25">
-        <v>30</v>
-      </c>
-      <c r="J25">
-        <v>41</v>
-      </c>
+    <row r="25" spans="3:26" x14ac:dyDescent="0.25">
       <c r="P25" t="s">
         <v>1</v>
       </c>
@@ -1051,28 +1021,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="26" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C26" t="s">
-        <v>1</v>
-      </c>
-      <c r="F26">
-        <v>73</v>
-      </c>
-      <c r="G26">
-        <v>7</v>
-      </c>
-      <c r="H26">
-        <v>33</v>
-      </c>
-      <c r="I26">
-        <v>44</v>
-      </c>
-      <c r="J26">
-        <v>21</v>
-      </c>
-      <c r="L26">
-        <v>21</v>
-      </c>
+    <row r="26" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Q26" t="s">
         <v>2</v>
       </c>
@@ -1095,28 +1044,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="27" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D27" t="s">
-        <v>2</v>
-      </c>
-      <c r="F27">
-        <v>41</v>
-      </c>
-      <c r="G27">
-        <v>2</v>
-      </c>
-      <c r="H27">
-        <v>89</v>
-      </c>
-      <c r="I27">
-        <v>21</v>
-      </c>
-      <c r="J27">
-        <v>72</v>
-      </c>
-      <c r="L27">
-        <v>67</v>
-      </c>
+    <row r="27" spans="3:26" x14ac:dyDescent="0.25">
       <c r="O27" t="s">
         <v>0</v>
       </c>
@@ -1139,28 +1067,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="28" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B28" t="s">
-        <v>0</v>
-      </c>
-      <c r="F28">
-        <v>71</v>
-      </c>
-      <c r="G28">
-        <v>50</v>
-      </c>
-      <c r="H28">
-        <v>16</v>
-      </c>
-      <c r="I28">
-        <v>21</v>
-      </c>
-      <c r="J28">
-        <v>83</v>
-      </c>
-      <c r="L28">
-        <v>6</v>
-      </c>
+    <row r="28" spans="3:26" x14ac:dyDescent="0.25">
       <c r="P28" t="s">
         <v>1</v>
       </c>
@@ -1183,28 +1090,7 @@
         <v>13</v>
       </c>
     </row>
-    <row r="29" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C29" t="s">
-        <v>1</v>
-      </c>
-      <c r="F29">
-        <v>26</v>
-      </c>
-      <c r="G29">
-        <v>57</v>
-      </c>
-      <c r="H29">
-        <v>73</v>
-      </c>
-      <c r="I29">
-        <v>32</v>
-      </c>
-      <c r="J29">
-        <v>74</v>
-      </c>
-      <c r="L29">
-        <v>91</v>
-      </c>
+    <row r="29" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Q29" t="s">
         <v>2</v>
       </c>
@@ -1227,28 +1113,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="30" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="D30" t="s">
-        <v>2</v>
-      </c>
-      <c r="F30">
-        <v>36</v>
-      </c>
-      <c r="G30">
-        <v>44</v>
-      </c>
-      <c r="H30">
-        <v>31</v>
-      </c>
-      <c r="I30">
-        <v>1</v>
-      </c>
-      <c r="J30">
-        <v>84</v>
-      </c>
-      <c r="L30">
-        <v>98</v>
-      </c>
+    <row r="30" spans="3:26" x14ac:dyDescent="0.25">
       <c r="O30" t="s">
         <v>0</v>
       </c>
@@ -1271,25 +1136,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="31" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="B31" t="s">
-        <v>0</v>
-      </c>
-      <c r="F31">
-        <v>65</v>
-      </c>
-      <c r="G31">
-        <v>18</v>
-      </c>
-      <c r="H31">
-        <v>35</v>
-      </c>
-      <c r="I31">
-        <v>26</v>
-      </c>
-      <c r="J31">
-        <v>67</v>
-      </c>
+    <row r="31" spans="3:26" x14ac:dyDescent="0.25">
       <c r="P31" t="s">
         <v>1</v>
       </c>
@@ -1312,28 +1159,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="32" spans="2:26" x14ac:dyDescent="0.25">
-      <c r="C32" t="s">
-        <v>1</v>
-      </c>
-      <c r="F32">
-        <v>72</v>
-      </c>
-      <c r="G32">
-        <v>89</v>
-      </c>
-      <c r="H32">
-        <v>10</v>
-      </c>
-      <c r="I32">
-        <v>81</v>
-      </c>
-      <c r="J32">
-        <v>22</v>
-      </c>
-      <c r="L32">
-        <v>66</v>
-      </c>
+    <row r="32" spans="3:26" x14ac:dyDescent="0.25">
       <c r="Q32" t="s">
         <v>2</v>
       </c>
@@ -1354,98 +1180,6 @@
       </c>
       <c r="Y32">
         <v>63</v>
-      </c>
-    </row>
-    <row r="33" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D33" t="s">
-        <v>2</v>
-      </c>
-      <c r="F33">
-        <v>40</v>
-      </c>
-      <c r="G33">
-        <v>68</v>
-      </c>
-      <c r="H33">
-        <v>21</v>
-      </c>
-      <c r="I33">
-        <v>2</v>
-      </c>
-      <c r="J33">
-        <v>80</v>
-      </c>
-      <c r="L33">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="34" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B34" t="s">
-        <v>0</v>
-      </c>
-      <c r="F34">
-        <v>37</v>
-      </c>
-      <c r="G34">
-        <v>73</v>
-      </c>
-      <c r="H34">
-        <v>39</v>
-      </c>
-      <c r="I34">
-        <v>36</v>
-      </c>
-      <c r="J34">
-        <v>96</v>
-      </c>
-      <c r="L34">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="35" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="C35" t="s">
-        <v>1</v>
-      </c>
-      <c r="F35">
-        <v>78</v>
-      </c>
-      <c r="G35">
-        <v>68</v>
-      </c>
-      <c r="H35">
-        <v>10</v>
-      </c>
-      <c r="I35">
-        <v>18</v>
-      </c>
-      <c r="J35">
-        <v>80</v>
-      </c>
-      <c r="L35">
-        <v>16</v>
-      </c>
-    </row>
-    <row r="36" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="D36" t="s">
-        <v>2</v>
-      </c>
-      <c r="F36">
-        <v>69</v>
-      </c>
-      <c r="G36">
-        <v>99</v>
-      </c>
-      <c r="H36">
-        <v>82</v>
-      </c>
-      <c r="I36">
-        <v>26</v>
-      </c>
-      <c r="J36">
-        <v>57</v>
-      </c>
-      <c r="L36">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
